--- a/outputs-HGR-r202-archive/o__Propionibacteriales_train.xlsx
+++ b/outputs-HGR-r202-archive/o__Propionibacteriales_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,17 +582,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312105_3.fasta</t>
+          <t>label_GCF_000312105_0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03063784654522117</v>
+        <v>5.148542003841072e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9693621534547788</v>
+        <v>0.9999994851457996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9693621534547788</v>
+        <v>0.9999994851457996</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,17 +603,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312105_0.fasta</t>
+          <t>label_GCF_000312105_2.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.148542003841072e-07</v>
+        <v>3.465429989635282e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999994851457996</v>
+        <v>0.999999653457001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999994851457996</v>
+        <v>0.999999653457001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -624,61 +624,40 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312105_2.fasta</t>
+          <t>label_GCF_000312105_1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.465429989635282e-07</v>
+        <v>0.9225600366390767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999999653457001</v>
+        <v>0.07743996336092335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999999653457001</v>
+        <v>0.9225600366390767</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae</t>
+          <t>f__Nocardioidaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312105_1.fasta</t>
+          <t>label_GCF_000312105_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9225600366390767</v>
+        <v>4.367389971893232e-08</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07743996336092335</v>
+        <v>0.9999999563261003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9225600366390767</v>
+        <v>0.9999999563261003</v>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>f__Nocardioidaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000312105_4.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.367389971893232e-08</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9999999563261003</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9999999563261003</v>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>f__Propionibacteriaceae</t>
         </is>
@@ -695,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,17 +964,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_13.fasta</t>
+          <t>label_20298_2_29_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01038664291889435</v>
+        <v>0.08440974270062629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9896133570811056</v>
+        <v>0.9155902572993737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9896133570811056</v>
+        <v>0.9155902572993737</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1006,17 +985,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_15.fasta</t>
+          <t>label_20298_2_29_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007297770166475703</v>
+        <v>0.08398922782277973</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9927022298335243</v>
+        <v>0.9160107721772203</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9927022298335243</v>
+        <v>0.9160107721772203</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1027,17 +1006,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_30.fasta</t>
+          <t>label_20298_2_29_22.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01476209010346452</v>
+        <v>0.08389827342330036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9852379098965355</v>
+        <v>0.9161017265766996</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9852379098965355</v>
+        <v>0.9161017265766996</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1048,17 +1027,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_36.fasta</t>
+          <t>label_20298_2_29_24.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0350820369453132</v>
+        <v>0.08388583341381084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9649179630546868</v>
+        <v>0.9161141665861892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9649179630546868</v>
+        <v>0.9161141665861892</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1069,17 +1048,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_4.fasta</t>
+          <t>label_20298_2_29_25.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006375059104218095</v>
+        <v>0.08397721151112014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9936249408957819</v>
+        <v>0.9160227884888799</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9936249408957819</v>
+        <v>0.9160227884888799</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1090,17 +1069,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_5.fasta</t>
+          <t>label_20298_2_29_27.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005567886176862213</v>
+        <v>0.08401974100373522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9944321138231378</v>
+        <v>0.9159802589962648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9944321138231378</v>
+        <v>0.9159802589962648</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1111,17 +1090,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_7.fasta</t>
+          <t>label_20298_2_29_33.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005342720278259327</v>
+        <v>0.08425395592989893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9946572797217407</v>
+        <v>0.9157460440701011</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9946572797217407</v>
+        <v>0.9157460440701011</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1132,17 +1111,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_3.fasta</t>
+          <t>label_20298_2_29_34.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004852268985077068</v>
+        <v>0.08455562900583136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9951477310149229</v>
+        <v>0.9154443709941686</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9951477310149229</v>
+        <v>0.9154443709941686</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1153,17 +1132,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_4.fasta</t>
+          <t>label_20298_2_29_38.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005714576187585307</v>
+        <v>0.08448692478418007</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9942854238124147</v>
+        <v>0.9155130752158199</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9942854238124147</v>
+        <v>0.9155130752158199</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1174,17 +1153,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_2.fasta</t>
+          <t>label_20298_2_29_39.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009297342751034998</v>
+        <v>0.08511519548951163</v>
       </c>
       <c r="C23" t="n">
-        <v>0.990702657248965</v>
+        <v>0.9148848045104884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.990702657248965</v>
+        <v>0.9148848045104884</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1195,17 +1174,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_4.fasta</t>
+          <t>label_20298_3_1_2.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.008031309420086008</v>
+        <v>0.08627959293740828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.991968690579914</v>
+        <v>0.9137204070625917</v>
       </c>
       <c r="D24" t="n">
-        <v>0.991968690579914</v>
+        <v>0.9137204070625917</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1216,17 +1195,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_5.fasta</t>
+          <t>label_20298_3_1_6.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01800192074541096</v>
+        <v>0.08446539674726716</v>
       </c>
       <c r="C25" t="n">
-        <v>0.981998079254589</v>
+        <v>0.9155346032527328</v>
       </c>
       <c r="D25" t="n">
-        <v>0.981998079254589</v>
+        <v>0.9155346032527328</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1237,17 +1216,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_7.fasta</t>
+          <t>label_GCF_000826065_0.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006576549002956456</v>
+        <v>0.08349142034609182</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9934234509970435</v>
+        <v>0.9165085796539082</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9934234509970435</v>
+        <v>0.9165085796539082</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1258,17 +1237,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_10.fasta</t>
+          <t>label_GCF_000826065_3.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08440974270062629</v>
+        <v>0.08298458160874345</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9155902572993737</v>
+        <v>0.9170154183912566</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9155902572993737</v>
+        <v>0.9170154183912566</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1279,17 +1258,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_11.fasta</t>
+          <t>label_GCF_000826065_6.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08398922782277973</v>
+        <v>0.08281589271814127</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9160107721772203</v>
+        <v>0.9171841072818587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9160107721772203</v>
+        <v>0.9171841072818587</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1300,17 +1279,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_22.fasta</t>
+          <t>label_20298_2_29_19.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08389827342330036</v>
+        <v>0.01017170762874331</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9161017265766996</v>
+        <v>0.9898282923712567</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9161017265766996</v>
+        <v>0.9898282923712567</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1321,17 +1300,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_24.fasta</t>
+          <t>label_20298_2_29_2.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08388583341381084</v>
+        <v>0.01011632975823717</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9161141665861892</v>
+        <v>0.9898836702417628</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9161141665861892</v>
+        <v>0.9898836702417628</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1342,17 +1321,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_25.fasta</t>
+          <t>label_20298_2_29_23.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08397721151112014</v>
+        <v>0.008826847244853053</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9160227884888799</v>
+        <v>0.9911731527551469</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9160227884888799</v>
+        <v>0.9911731527551469</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1363,17 +1342,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_27.fasta</t>
+          <t>label_20298_2_29_26.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08401974100373522</v>
+        <v>0.01043816143860354</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9159802589962648</v>
+        <v>0.9895618385613965</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9159802589962648</v>
+        <v>0.9895618385613965</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1384,17 +1363,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_33.fasta</t>
+          <t>label_20298_2_29_28.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.08425395592989893</v>
+        <v>0.008390768231940848</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9157460440701011</v>
+        <v>0.9916092317680592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9157460440701011</v>
+        <v>0.9916092317680592</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1405,17 +1384,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_34.fasta</t>
+          <t>label_20298_2_29_3.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.08455562900583136</v>
+        <v>0.01012383007227058</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9154443709941686</v>
+        <v>0.9898761699277294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9154443709941686</v>
+        <v>0.9898761699277294</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1426,17 +1405,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_38.fasta</t>
+          <t>label_20298_2_29_35.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08448692478418007</v>
+        <v>0.006965097255943741</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9155130752158199</v>
+        <v>0.9930349027440563</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9155130752158199</v>
+        <v>0.9930349027440563</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1447,17 +1426,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_39.fasta</t>
+          <t>label_20298_2_29_42.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.08511519548951163</v>
+        <v>0.0002344138591031664</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9148848045104884</v>
+        <v>0.9997655861408968</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9148848045104884</v>
+        <v>0.9997655861408968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1468,17 +1447,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_2.fasta</t>
+          <t>label_20298_2_29_43.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08627959293740828</v>
+        <v>0.0001959821369302839</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9137204070625917</v>
+        <v>0.9998040178630697</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9137204070625917</v>
+        <v>0.9998040178630697</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1489,17 +1468,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_6.fasta</t>
+          <t>label_20298_2_29_8.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.08446539674726716</v>
+        <v>0.01008293768751545</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9155346032527328</v>
+        <v>0.9899170623124846</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9155346032527328</v>
+        <v>0.9899170623124846</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1510,17 +1489,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_0.fasta</t>
+          <t>label_GCF_000826065_10.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08349142034609182</v>
+        <v>0.01078572629690777</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9165085796539082</v>
+        <v>0.9892142737030922</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9165085796539082</v>
+        <v>0.9892142737030922</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1531,17 +1510,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_3.fasta</t>
+          <t>label_GCF_000826085_0.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.08298458160874345</v>
+        <v>0.0001888821755251513</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9170154183912566</v>
+        <v>0.9998111178244748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9170154183912566</v>
+        <v>0.9998111178244748</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1552,17 +1531,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_6.fasta</t>
+          <t>label_GCF_000826085_2.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08281589271814127</v>
+        <v>0.0002477994924917626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9171841072818587</v>
+        <v>0.9997522005075082</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9171841072818587</v>
+        <v>0.9997522005075082</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1573,17 +1552,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_19.fasta</t>
+          <t>label_20298_2_29_0.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01017170762874331</v>
+        <v>0.05641239981422763</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9898282923712567</v>
+        <v>0.9435876001857724</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9898282923712567</v>
+        <v>0.9435876001857724</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1594,17 +1573,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_2.fasta</t>
+          <t>label_20298_2_29_12.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01011632975823717</v>
+        <v>0.04500611563162493</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9898836702417628</v>
+        <v>0.9549938843683751</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9898836702417628</v>
+        <v>0.9549938843683751</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1615,17 +1594,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_23.fasta</t>
+          <t>label_20298_2_29_14.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008826847244853053</v>
+        <v>0.05399997292228886</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9911731527551469</v>
+        <v>0.9460000270777111</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9911731527551469</v>
+        <v>0.9460000270777111</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1636,17 +1615,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_26.fasta</t>
+          <t>label_20298_2_29_21.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01043816143860354</v>
+        <v>0.03847590472553153</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9895618385613965</v>
+        <v>0.9615240952744685</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9895618385613965</v>
+        <v>0.9615240952744685</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1657,17 +1636,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_28.fasta</t>
+          <t>label_20298_2_29_29.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.008390768231940848</v>
+        <v>0.03163841869381023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9916092317680592</v>
+        <v>0.9683615813061899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9916092317680592</v>
+        <v>0.9683615813061899</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1678,17 +1657,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_3.fasta</t>
+          <t>label_20298_2_29_31.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01012383007227058</v>
+        <v>0.03054397944186704</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9898761699277294</v>
+        <v>0.969456020558133</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9898761699277294</v>
+        <v>0.969456020558133</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1699,17 +1678,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_35.fasta</t>
+          <t>label_20298_2_29_32.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006965097255943741</v>
+        <v>0.03095558947398747</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9930349027440563</v>
+        <v>0.9690444105260125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9930349027440563</v>
+        <v>0.9690444105260125</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1720,17 +1699,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_42.fasta</t>
+          <t>label_20298_2_29_40.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0002344138591031664</v>
+        <v>0.02949593235706449</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9997655861408968</v>
+        <v>0.9705040676429355</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9997655861408968</v>
+        <v>0.9705040676429355</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1741,17 +1720,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_43.fasta</t>
+          <t>label_20298_2_29_6.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0001959821369302839</v>
+        <v>0.04060668731993555</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9998040178630697</v>
+        <v>0.9593933126800644</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9998040178630697</v>
+        <v>0.9593933126800644</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1762,17 +1741,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_8.fasta</t>
+          <t>label_20298_2_29_9.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01008293768751545</v>
+        <v>0.05267411802662281</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9899170623124846</v>
+        <v>0.9473258819733772</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9899170623124846</v>
+        <v>0.9473258819733772</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1783,17 +1762,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_10.fasta</t>
+          <t>label_20298_3_1_1.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01078572629690777</v>
+        <v>0.06853559178178137</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9892142737030922</v>
+        <v>0.9314644082182186</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9892142737030922</v>
+        <v>0.9314644082182186</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1804,38 +1783,38 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826085_0.fasta</t>
+          <t>label_20298_3_1_7.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0001888821755251513</v>
+        <v>0.7358018210480215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9998111178244748</v>
+        <v>0.2641981789519786</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9998111178244748</v>
+        <v>0.7358018210480215</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae</t>
+          <t>f__Nocardioidaceae</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826085_2.fasta</t>
+          <t>label_GCF_000413335_0.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0002477994924917626</v>
+        <v>0.06148231584748909</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9997522005075082</v>
+        <v>0.9385176841525109</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9997522005075082</v>
+        <v>0.9385176841525109</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1846,38 +1825,38 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_0.fasta</t>
+          <t>label_GCF_000413335_1.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05641239981422763</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9435876001857724</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9435876001857724</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae</t>
+          <t>f__Nocardioidaceae</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_12.fasta</t>
+          <t>label_GCF_000826065_8.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.04500611563162493</v>
+        <v>0.03399440503121431</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9549938843683751</v>
+        <v>0.9660055949687857</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9549938843683751</v>
+        <v>0.9660055949687857</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1888,17 +1867,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_14.fasta</t>
+          <t>label_20298_2_29_1.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05399997292228886</v>
+        <v>0.005401735662924234</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9460000270777111</v>
+        <v>0.9945982643370758</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9460000270777111</v>
+        <v>0.9945982643370758</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1909,17 +1888,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_21.fasta</t>
+          <t>label_20298_2_29_16.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03847590472553153</v>
+        <v>0.003931070135548942</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9615240952744685</v>
+        <v>0.9960689298644511</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9615240952744685</v>
+        <v>0.9960689298644511</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1930,17 +1909,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_29.fasta</t>
+          <t>label_20298_2_29_17.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03163841869381023</v>
+        <v>0.004295419290311964</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9683615813061899</v>
+        <v>0.995704580709688</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9683615813061899</v>
+        <v>0.995704580709688</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1951,17 +1930,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_31.fasta</t>
+          <t>label_20298_2_29_18.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03054397944186704</v>
+        <v>0.00545374233103868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.969456020558133</v>
+        <v>0.9945462576689613</v>
       </c>
       <c r="D60" t="n">
-        <v>0.969456020558133</v>
+        <v>0.9945462576689613</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1972,17 +1951,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_32.fasta</t>
+          <t>label_20298_2_29_20.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03095558947398747</v>
+        <v>0.004119571713988801</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9690444105260125</v>
+        <v>0.9958804282860112</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9690444105260125</v>
+        <v>0.9958804282860112</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1993,17 +1972,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_40.fasta</t>
+          <t>label_20298_2_29_37.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02949593235706449</v>
+        <v>0.003883779313691438</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9705040676429355</v>
+        <v>0.9961162206863086</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9705040676429355</v>
+        <v>0.9961162206863086</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2014,17 +1993,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_6.fasta</t>
+          <t>label_20298_2_29_41.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.04060668731993555</v>
+        <v>7.150077675577293e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9593933126800644</v>
+        <v>0.9999284992232442</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9593933126800644</v>
+        <v>0.9999284992232442</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2035,17 +2014,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_9.fasta</t>
+          <t>label_20298_3_1_0.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.05267411802662281</v>
+        <v>0.0110187984034551</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9473258819733772</v>
+        <v>0.9889812015965449</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9473258819733772</v>
+        <v>0.9889812015965449</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2056,17 +2035,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_1.fasta</t>
+          <t>label_20298_3_1_5.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.06853559178178137</v>
+        <v>5.830134264417364e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9314644082182186</v>
+        <v>0.9999416986573558</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9314644082182186</v>
+        <v>0.9999416986573558</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2077,38 +2056,38 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_7.fasta</t>
+          <t>label_GCF_000826065_1.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7358018210480215</v>
+        <v>0.001923828680726936</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2641981789519786</v>
+        <v>0.9980761713192731</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7358018210480215</v>
+        <v>0.9980761713192731</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>f__Nocardioidaceae</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000413335_0.fasta</t>
+          <t>label_GCF_000826065_9.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.06148231584748909</v>
+        <v>0.0005271035217155884</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9385176841525109</v>
+        <v>0.9994728964782844</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9385176841525109</v>
+        <v>0.9994728964782844</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2119,292 +2098,19 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000413335_1.fasta</t>
+          <t>label_GCF_000826085_1.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.008978507780415201</v>
       </c>
       <c r="C68" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.9910214922195848</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9910214922195848</v>
       </c>
       <c r="E68" t="inlineStr">
-        <is>
-          <t>f__Nocardioidaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826065_8.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.03399440503121431</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.9660055949687857</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9660055949687857</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_1.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.005401735662924234</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9945982643370758</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9945982643370758</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_16.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.003931070135548942</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.9960689298644511</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9960689298644511</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_17.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.004295419290311964</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.995704580709688</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.995704580709688</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_18.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.00545374233103868</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.9945462576689613</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9945462576689613</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_20.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.004119571713988801</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.9958804282860112</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9958804282860112</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_37.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.003883779313691438</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.9961162206863086</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9961162206863086</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_41.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>7.150077675577293e-05</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.9999284992232442</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9999284992232442</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.0110187984034551</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.9889812015965449</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9889812015965449</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_1_5.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>5.830134264417364e-05</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.9999416986573558</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9999416986573558</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826065_1.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.001923828680726936</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.9980761713192731</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9980761713192731</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826065_9.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.0005271035217155884</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.9994728964782844</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9994728964782844</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826085_1.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.008978507780415201</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.9910214922195848</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9910214922195848</v>
-      </c>
-      <c r="E81" t="inlineStr">
         <is>
           <t>f__Propionibacteriaceae</t>
         </is>
